--- a/result/eval_count.xlsx
+++ b/result/eval_count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bachnt9x/Documents/GitHub/pgs/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A943B4-7BF5-7441-86CC-4ED52C433254}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C087BEEB-7B63-DF45-B00B-2930516F39F7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="19500" activeTab="5" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="19500" xr2:uid="{0A96A418-C959-8147-92A5-8E6282041EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="comp_replace" sheetId="1" r:id="rId1"/>
@@ -375,6 +375,18 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,18 +413,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,9 +730,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE12618-E339-D745-ABCD-0762550117A2}">
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D4" sqref="D4:D7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="168" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,31 +741,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
     </row>
     <row r="2" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
@@ -778,10 +778,10 @@
       <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="41"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1555,10 +1555,10 @@
       <c r="C23" s="29"/>
       <c r="D23" s="30"/>
       <c r="E23" s="31"/>
-      <c r="F23" s="43" t="s">
+      <c r="F23" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G23" s="44"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="29">
         <v>100000</v>
       </c>
@@ -1569,10 +1569,10 @@
       <c r="K23" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="L23" s="43" t="s">
+      <c r="L23" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="44"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
@@ -2055,7 +2055,7 @@
   <sheetViews>
     <sheetView zoomScale="131" zoomScaleNormal="223" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J19" sqref="J19"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2064,47 +2064,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="34" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="39"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="43"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2117,10 +2117,10 @@
       <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="41"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2133,10 +2133,10 @@
       <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="9" t="s">
         <v>2</v>
       </c>
@@ -2149,10 +2149,10 @@
       <c r="S2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="41"/>
+      <c r="U2" s="45"/>
       <c r="V2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3162,8 +3162,8 @@
       <c r="C23" s="29"/>
       <c r="D23" s="30"/>
       <c r="E23" s="31"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
       <c r="H23" s="29">
         <v>400000</v>
       </c>
@@ -3173,19 +3173,19 @@
       <c r="J23" s="30"/>
       <c r="K23" s="31"/>
       <c r="L23" s="33"/>
-      <c r="M23" s="44"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="29"/>
       <c r="O23" s="29"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="31"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="44"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="35"/>
       <c r="T23" s="29"/>
       <c r="U23" s="29"/>
       <c r="V23" s="30"/>
       <c r="W23" s="31"/>
       <c r="X23" s="33"/>
-      <c r="Y23" s="44"/>
+      <c r="Y23" s="35"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
@@ -3197,7 +3197,7 @@
       <c r="C24" s="29"/>
       <c r="D24" s="30"/>
       <c r="E24" s="31"/>
-      <c r="F24" s="46"/>
+      <c r="F24" s="37"/>
       <c r="G24" s="32"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
@@ -3209,7 +3209,7 @@
       <c r="O24" s="29"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="31"/>
-      <c r="R24" s="46"/>
+      <c r="R24" s="37"/>
       <c r="S24" s="32"/>
       <c r="T24" s="29"/>
       <c r="U24" s="29"/>
@@ -3733,47 +3733,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="34" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="34" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="34" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="40"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3786,10 +3786,10 @@
       <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="41"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3802,10 +3802,10 @@
       <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="9" t="s">
         <v>2</v>
       </c>
@@ -3818,10 +3818,10 @@
       <c r="S2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="41"/>
+      <c r="U2" s="45"/>
       <c r="V2" s="9" t="s">
         <v>2</v>
       </c>
@@ -4856,47 +4856,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="34" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="34" t="s">
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="34" t="s">
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="36"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="40"/>
     </row>
     <row r="2" spans="1:25" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
@@ -4909,10 +4909,10 @@
       <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="41"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
@@ -4925,10 +4925,10 @@
       <c r="M2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="40" t="s">
+      <c r="N2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="41"/>
+      <c r="O2" s="45"/>
       <c r="P2" s="9" t="s">
         <v>2</v>
       </c>
@@ -4941,10 +4941,10 @@
       <c r="S2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="41"/>
+      <c r="U2" s="45"/>
       <c r="V2" s="9" t="s">
         <v>2</v>
       </c>
@@ -5960,9 +5960,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2667B4D-E282-404B-B770-A2490C193345}">
   <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="125" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D7" sqref="D7"/>
+      <selection pane="topRight" activeCell="C4" sqref="B4:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5971,23 +5971,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
@@ -6683,9 +6683,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{299A7C5B-E613-9D41-9E92-86EAED0A2A4D}">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="168" workbookViewId="0">
+    <sheetView zoomScale="135" zoomScaleNormal="168" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C26" sqref="C26"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6694,31 +6694,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="45"/>
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
@@ -6731,10 +6731,10 @@
       <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="41"/>
+      <c r="I2" s="45"/>
       <c r="J2" s="9" t="s">
         <v>2</v>
       </c>
